--- a/data/Subset2_WithDialogActs/TalkBack.Year1.Tolliver.Fall.121019.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year1.Tolliver.Fall.121019.xlsx_with_dialog_acts.xlsx
@@ -891,12 +891,12 @@
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -1525,12 +1525,12 @@
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -1651,12 +1651,12 @@
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2037,12 +2037,12 @@
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -2163,12 +2163,12 @@
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2877,12 +2877,12 @@
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -2919,12 +2919,12 @@
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3129,12 +3129,12 @@
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3645,12 +3645,12 @@
       <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -3729,12 +3729,12 @@
       <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3981,12 +3981,12 @@
       <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4111,12 +4111,12 @@
       <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4237,12 +4237,12 @@
       <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -4531,12 +4531,12 @@
       <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -4657,12 +4657,12 @@
       <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -5077,12 +5077,12 @@
       <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5203,12 +5203,12 @@
       <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5501,12 +5501,12 @@
       <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5963,12 +5963,12 @@
       <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6425,12 +6425,12 @@
       <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6467,12 +6467,12 @@
       <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7097,12 +7097,12 @@
       <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -8567,12 +8567,12 @@
       <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9197,12 +9197,12 @@
       <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9617,12 +9617,12 @@
       <c r="H218" t="inlineStr"/>
       <c r="I218" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -11221,12 +11221,12 @@
       <c r="H256" t="inlineStr"/>
       <c r="I256" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J256" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11263,12 +11263,12 @@
       <c r="H257" t="inlineStr"/>
       <c r="I257" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J257" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11683,12 +11683,12 @@
       </c>
       <c r="I267" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J267" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12145,12 +12145,12 @@
       <c r="H278" t="inlineStr"/>
       <c r="I278" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J278" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13661,12 +13661,12 @@
       <c r="H314" t="inlineStr"/>
       <c r="I314" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J314" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14037,12 +14037,12 @@
       <c r="H323" t="inlineStr"/>
       <c r="I323" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J323" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -14079,12 +14079,12 @@
       <c r="H324" t="inlineStr"/>
       <c r="I324" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J324" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -15299,12 +15299,12 @@
       <c r="H353" t="inlineStr"/>
       <c r="I353" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J353" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15681,12 +15681,12 @@
       <c r="H362" t="inlineStr"/>
       <c r="I362" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J362" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -16357,12 +16357,12 @@
       <c r="H378" t="inlineStr"/>
       <c r="I378" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J378" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -16651,12 +16651,12 @@
       <c r="H385" t="inlineStr"/>
       <c r="I385" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J385" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -16735,12 +16735,12 @@
       <c r="H387" t="inlineStr"/>
       <c r="I387" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J387" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -17071,12 +17071,12 @@
       <c r="H395" t="inlineStr"/>
       <c r="I395" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J395" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17793,12 +17793,12 @@
       <c r="H412" t="inlineStr"/>
       <c r="I412" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J412" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -18129,12 +18129,12 @@
       <c r="H420" t="inlineStr"/>
       <c r="I420" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J420" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -18255,12 +18255,12 @@
       <c r="H423" t="inlineStr"/>
       <c r="I423" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J423" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -18847,12 +18847,12 @@
       <c r="H437" t="inlineStr"/>
       <c r="I437" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J437" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -18931,12 +18931,12 @@
       <c r="H439" t="inlineStr"/>
       <c r="I439" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J439" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -19519,12 +19519,12 @@
       <c r="H453" t="inlineStr"/>
       <c r="I453" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J453" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -19897,12 +19897,12 @@
       <c r="H462" t="inlineStr"/>
       <c r="I462" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J462" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -20821,12 +20821,12 @@
       <c r="H484" t="inlineStr"/>
       <c r="I484" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J484" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -20863,12 +20863,12 @@
       <c r="H485" t="inlineStr"/>
       <c r="I485" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J485" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -21787,12 +21787,12 @@
       <c r="H507" t="inlineStr"/>
       <c r="I507" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J507" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -21829,12 +21829,12 @@
       </c>
       <c r="I508" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J508" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -21955,12 +21955,12 @@
       <c r="H511" t="inlineStr"/>
       <c r="I511" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J511" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -22039,12 +22039,12 @@
       <c r="H513" t="inlineStr"/>
       <c r="I513" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J513" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -22291,12 +22291,12 @@
       <c r="H519" t="inlineStr"/>
       <c r="I519" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J519" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -23341,12 +23341,12 @@
       <c r="H544" t="inlineStr"/>
       <c r="I544" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J544" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -23509,12 +23509,12 @@
       <c r="H548" t="inlineStr"/>
       <c r="I548" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J548" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -23635,12 +23635,12 @@
       <c r="H551" t="inlineStr"/>
       <c r="I551" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J551" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -24277,12 +24277,12 @@
       <c r="H566" t="inlineStr"/>
       <c r="I566" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J566" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -24445,12 +24445,12 @@
       <c r="H570" t="inlineStr"/>
       <c r="I570" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J570" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -24999,12 +24999,12 @@
       <c r="H583" t="inlineStr"/>
       <c r="I583" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J583" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -25587,12 +25587,12 @@
       <c r="H597" t="inlineStr"/>
       <c r="I597" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J597" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -25881,12 +25881,12 @@
       <c r="H604" t="inlineStr"/>
       <c r="I604" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J604" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -26385,12 +26385,12 @@
       <c r="H616" t="inlineStr"/>
       <c r="I616" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J616" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -26553,12 +26553,12 @@
       <c r="H620" t="inlineStr"/>
       <c r="I620" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J620" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
